--- a/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC211EE1-1DCE-4121-AA2F-5C4D1FABDEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB145A0-4335-4CBC-9E9C-7C09743062B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A7D4F243-DBA8-4659-8BB0-2AEEFDE89D21}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{484BE06A-08B5-4C58-BA97-6BD6ECBD5BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,93 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>98,53%</t>
   </si>
   <si>
@@ -86,9 +167,6 @@
     <t>97,34%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,84%</t>
   </si>
   <si>
@@ -98,9 +176,6 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>1,47%</t>
   </si>
   <si>
@@ -113,9 +188,6 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,66%</t>
   </si>
   <si>
@@ -128,52 +200,49 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -225,75 +294,6 @@
   </si>
   <si>
     <t>2,49%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
   </si>
   <si>
     <t>97,69%</t>
@@ -733,7 +733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB01999-B546-493A-95B7-01FAEDBFF710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F244EF56-88E7-4745-A3C7-0DA08F8A959E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -851,10 +851,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>245652</v>
+        <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -866,85 +866,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>190495</v>
+        <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29485</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>615</v>
-      </c>
-      <c r="N4" s="7">
-        <v>436146</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3656</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1444</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5100</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -953,54 +953,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>342</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>249308</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>191939</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>441246</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1012,13 +1012,13 @@
         <v>112767</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>166</v>
@@ -1027,13 +1027,13 @@
         <v>102835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -1042,19 +1042,19 @@
         <v>215601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1063,13 +1063,13 @@
         <v>1829</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1078,13 +1078,13 @@
         <v>1060</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>2889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1114,13 +1114,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -1129,13 +1129,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -1144,117 +1144,117 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="D10" s="7">
-        <v>173314</v>
+        <v>245652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="I10" s="7">
-        <v>169805</v>
+        <v>190495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>473</v>
+        <v>615</v>
       </c>
       <c r="N10" s="7">
-        <v>343118</v>
+        <v>436146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3656</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1702</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
       <c r="I11" s="7">
-        <v>2138</v>
+        <v>1444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>3840</v>
+        <v>5100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1263,153 +1263,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>249308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>191939</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>441246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7">
-        <v>12698</v>
+        <v>171407</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I13" s="7">
-        <v>16787</v>
+        <v>167083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>448</v>
       </c>
       <c r="N13" s="7">
-        <v>29485</v>
+        <v>338490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,144 +1418,144 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>171407</v>
+        <v>173314</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>237</v>
+      </c>
+      <c r="I16" s="7">
+        <v>169805</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7">
-        <v>225</v>
-      </c>
-      <c r="I16" s="7">
-        <v>167083</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>473</v>
+      </c>
+      <c r="N16" s="7">
+        <v>343118</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="7">
-        <v>448</v>
-      </c>
-      <c r="N16" s="7">
-        <v>338490</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1801</v>
+        <v>1702</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2138</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>819</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>82</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2620</v>
+        <v>3840</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>83</v>
@@ -1573,49 +1573,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,7 +1632,7 @@
         <v>715838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>86</v>
@@ -1674,7 +1674,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>11</v>
@@ -1683,7 +1683,7 @@
         <v>8987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>94</v>
@@ -1734,13 +1734,13 @@
         <v>724825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>941</v>
@@ -1749,13 +1749,13 @@
         <v>652465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1917</v>
@@ -1764,13 +1764,13 @@
         <v>1377291</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECB145A0-4335-4CBC-9E9C-7C09743062B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F5A2F5-A48B-431B-878B-7AC2F1A81BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{484BE06A-08B5-4C58-BA97-6BD6ECBD5BC9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A56E5DDB-5C6B-485D-9996-2D954691EA64}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
@@ -68,6 +68,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,220 +104,220 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>96,67%</t>
+    <t>96,58%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>95,56%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,09%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>97,01%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>96,37%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>97,49%</t>
+    <t>97,77%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>96,61%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,16%</t>
@@ -308,40 +326,19 @@
     <t>98,34%</t>
   </si>
   <si>
-    <t>99,62%</t>
+    <t>99,61%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,25%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -352,7 +349,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -448,39 +445,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -532,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -643,13 +640,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -658,6 +648,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -722,19 +719,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F244EF56-88E7-4745-A3C7-0DA08F8A959E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1F56E5-D764-4CEE-99AB-2B8D8AA3948A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -851,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -866,34 +883,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -902,10 +919,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -917,34 +934,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>29485</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -959,13 +976,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -974,13 +991,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -989,13 +1006,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1006,10 +1023,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>112767</v>
+        <v>1829</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1021,25 +1038,25 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>102835</v>
+        <v>1060</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>215601</v>
+        <v>2889</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>28</v>
@@ -1048,7 +1065,7 @@
         <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1057,49 +1074,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
-        <v>1829</v>
+        <v>112767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="I8" s="7">
-        <v>1060</v>
+        <v>102835</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="N8" s="7">
-        <v>2889</v>
+        <v>215601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1114,13 +1131,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -1129,13 +1146,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -1144,63 +1161,63 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>245652</v>
+        <v>3656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>190495</v>
+        <v>1444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>615</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>436146</v>
+        <v>5100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>45</v>
@@ -1212,10 +1229,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="D11" s="7">
-        <v>3656</v>
+        <v>245652</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>46</v>
@@ -1224,37 +1241,37 @@
         <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="7">
+        <v>277</v>
+      </c>
+      <c r="I11" s="7">
+        <v>190495</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1444</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>615</v>
+      </c>
+      <c r="N11" s="7">
+        <v>436146</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5100</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1269,13 +1286,13 @@
         <v>249308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>279</v>
@@ -1284,13 +1301,13 @@
         <v>191939</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>621</v>
@@ -1299,66 +1316,66 @@
         <v>441246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>171407</v>
+        <v>1801</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>819</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>225</v>
-      </c>
-      <c r="I13" s="7">
-        <v>167083</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2620</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>448</v>
-      </c>
-      <c r="N13" s="7">
-        <v>338490</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,49 +1384,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7">
-        <v>1801</v>
+        <v>171407</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7">
+        <v>225</v>
+      </c>
+      <c r="I14" s="7">
+        <v>167083</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>819</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>448</v>
+      </c>
+      <c r="N14" s="7">
+        <v>338490</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2620</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,13 +1441,13 @@
         <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>226</v>
@@ -1439,13 +1456,13 @@
         <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>451</v>
@@ -1454,66 +1471,66 @@
         <v>341110</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>173314</v>
+        <v>1702</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2138</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>237</v>
-      </c>
-      <c r="I16" s="7">
-        <v>169805</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3840</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="7">
-        <v>473</v>
-      </c>
-      <c r="N16" s="7">
-        <v>343118</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,49 +1539,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="D17" s="7">
-        <v>1702</v>
+        <v>173314</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>237</v>
+      </c>
+      <c r="I17" s="7">
+        <v>169805</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2138</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>473</v>
+      </c>
+      <c r="N17" s="7">
+        <v>343118</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3840</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,13 +1596,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -1594,13 +1611,13 @@
         <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -1609,13 +1626,13 @@
         <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,49 +1643,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>965</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>715838</v>
+        <v>8987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5461</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="7">
-        <v>933</v>
-      </c>
-      <c r="I19" s="7">
-        <v>647004</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>19</v>
+      </c>
+      <c r="N19" s="7">
+        <v>14448</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="7">
-        <v>1898</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1362843</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,49 +1694,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>965</v>
       </c>
       <c r="D20" s="7">
-        <v>8987</v>
+        <v>715838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="7">
+        <v>933</v>
+      </c>
+      <c r="I20" s="7">
+        <v>647004</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5461</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1898</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1362843</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="7">
-        <v>19</v>
-      </c>
-      <c r="N20" s="7">
-        <v>14448</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1751,13 @@
         <v>724825</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>941</v>
@@ -1749,13 +1766,13 @@
         <v>652465</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1917</v>
@@ -1764,13 +1781,18 @@
         <v>1377291</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F5A2F5-A48B-431B-878B-7AC2F1A81BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEB0A75-E56F-40E2-89DD-52CA010964BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A56E5DDB-5C6B-485D-9996-2D954691EA64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5F55B81-860D-4F77-8B01-287635733A79}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -113,28 +113,28 @@
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,5%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>95,5%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -143,100 +143,106 @@
     <t>98,98%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,26%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>95,56%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>97,09%</t>
+    <t>97,41%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>98,96%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -245,7 +251,7 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,39%</t>
+    <t>3,82%</t>
   </si>
   <si>
     <t>1,24%</t>
@@ -254,88 +260,82 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,86%</t>
+    <t>3,48%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1F56E5-D764-4CEE-99AB-2B8D8AA3948A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F3C669-A75D-4346-B18A-A7172851B09B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1187,10 +1187,10 @@
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1199,13 +1199,13 @@
         <v>1444</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1214,13 +1214,13 @@
         <v>5100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,13 +1235,13 @@
         <v>245652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -1250,10 +1250,10 @@
         <v>190495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -1265,13 +1265,13 @@
         <v>436146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,7 +1327,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1339,13 +1339,13 @@
         <v>1801</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1354,13 +1354,13 @@
         <v>819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1369,13 +1369,13 @@
         <v>2620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,10 +1390,10 @@
         <v>171407</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1405,10 +1405,10 @@
         <v>167083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -1420,13 +1420,13 @@
         <v>338490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1494,13 +1494,13 @@
         <v>1702</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1509,13 +1509,13 @@
         <v>2138</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1524,13 +1524,13 @@
         <v>3840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,10 +1545,10 @@
         <v>173314</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1560,13 +1560,13 @@
         <v>169805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>473</v>
@@ -1575,13 +1575,13 @@
         <v>343118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,13 +1649,13 @@
         <v>8987</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -1664,13 +1664,13 @@
         <v>5461</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -1679,13 +1679,13 @@
         <v>14448</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1700,13 @@
         <v>715838</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>933</v>
@@ -1715,13 +1715,13 @@
         <v>647004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>1898</v>
@@ -1730,13 +1730,13 @@
         <v>1362843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEB0A75-E56F-40E2-89DD-52CA010964BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0BF529-5E34-4B13-8502-10BDB26C8101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5F55B81-860D-4F77-8B01-287635733A79}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A34DC9F7-7DF5-4FD9-A882-D112A34F6BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>Menores según si han sufrido algún tipo de agresión en los últimos 12 meses en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,277 +65,253 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>90,51%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -750,8 +726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F3C669-A75D-4346-B18A-A7172851B09B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DC8E7D-436C-4B23-ADA1-8247F7CB0510}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -868,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -883,85 +859,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="D5" s="7">
-        <v>12698</v>
+        <v>116231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
+        <v>168</v>
+      </c>
+      <c r="I5" s="7">
+        <v>138337</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>362</v>
+      </c>
+      <c r="N5" s="7">
+        <v>254569</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>47</v>
-      </c>
-      <c r="N5" s="7">
-        <v>29485</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -970,153 +946,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1829</v>
+        <v>1424</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>1060</v>
+        <v>3803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>2889</v>
+        <v>5227</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="D8" s="7">
-        <v>112767</v>
+        <v>188704</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="I8" s="7">
-        <v>102835</v>
+        <v>250307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>315</v>
+        <v>615</v>
       </c>
       <c r="N8" s="7">
-        <v>215601</v>
+        <v>439011</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,153 +1101,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>254110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>444238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3656</v>
+        <v>788</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1444</v>
+        <v>2022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>5100</v>
+        <v>2811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>245652</v>
+        <v>188797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>190495</v>
+        <v>183264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>615</v>
+        <v>448</v>
       </c>
       <c r="N11" s="7">
-        <v>436146</v>
+        <v>372060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,153 +1256,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>249308</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>191939</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>441246</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2133</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
-        <v>1801</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
       <c r="I13" s="7">
-        <v>819</v>
+        <v>1786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>2620</v>
+        <v>3919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>171407</v>
+        <v>165829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="I14" s="7">
-        <v>167083</v>
+        <v>179452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="N14" s="7">
-        <v>338490</v>
+        <v>345282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,153 +1411,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>1702</v>
+        <v>5394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="7">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
       <c r="I16" s="7">
-        <v>2138</v>
+        <v>9687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>3840</v>
+        <v>15080</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>236</v>
+        <v>933</v>
       </c>
       <c r="D17" s="7">
-        <v>173314</v>
+        <v>659562</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>237</v>
+        <v>965</v>
       </c>
       <c r="I17" s="7">
-        <v>169805</v>
+        <v>751360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
-        <v>473</v>
+        <v>1898</v>
       </c>
       <c r="N17" s="7">
-        <v>343118</v>
+        <v>1410923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,217 +1566,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>664956</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1426003</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8987</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5461</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="7">
-        <v>19</v>
-      </c>
-      <c r="N19" s="7">
-        <v>14448</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>965</v>
-      </c>
-      <c r="D20" s="7">
-        <v>715838</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="7">
-        <v>933</v>
-      </c>
-      <c r="I20" s="7">
-        <v>647004</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1898</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1362843</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724825</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652465</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377291</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
